--- a/input_Farm_Japanese.xlsx
+++ b/input_Farm_Japanese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\excel translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A47E47-9A64-405A-9B5B-9E4086E5E68F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF028B-0069-47D4-8817-C814D34B5B1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="170" yWindow="330" windowWidth="18930" windowHeight="9800" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAWASAKI CDW _プログラム6桁_Tコン Ver" sheetId="8" r:id="rId1"/>
@@ -16864,8 +16864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5054745" y="29701837"/>
-          <a:ext cx="5429642" cy="8261464"/>
+          <a:off x="5126182" y="30133637"/>
+          <a:ext cx="5537592" cy="8393226"/>
           <a:chOff x="13542818" y="44092091"/>
           <a:chExt cx="6374637" cy="8295091"/>
         </a:xfrm>
@@ -17034,8 +17034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36698141" y="4399643"/>
-          <a:ext cx="1815360" cy="1803514"/>
+          <a:off x="37368066" y="4431393"/>
+          <a:ext cx="1791547" cy="1827326"/>
           <a:chOff x="38741689" y="6561535"/>
           <a:chExt cx="1944187" cy="1211774"/>
         </a:xfrm>
@@ -17163,8 +17163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36793278" y="7939088"/>
-          <a:ext cx="1761159" cy="1340303"/>
+          <a:off x="37463203" y="8026400"/>
+          <a:ext cx="1730996" cy="1356178"/>
           <a:chOff x="38741689" y="6561536"/>
           <a:chExt cx="1944187" cy="900545"/>
         </a:xfrm>
@@ -19017,8 +19017,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37242750" y="13787439"/>
-          <a:ext cx="1836452" cy="1000125"/>
+          <a:off x="37893625" y="13970001"/>
+          <a:ext cx="1828514" cy="1016000"/>
           <a:chOff x="38741689" y="6561536"/>
           <a:chExt cx="1944187" cy="900545"/>
         </a:xfrm>
@@ -19146,8 +19146,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="38894548" y="22354601"/>
-          <a:ext cx="1814443" cy="889663"/>
+          <a:off x="39540660" y="22675276"/>
+          <a:ext cx="1816031" cy="894425"/>
           <a:chOff x="38741688" y="6910741"/>
           <a:chExt cx="1832663" cy="576633"/>
         </a:xfrm>
@@ -19275,8 +19275,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="38925651" y="23400119"/>
-          <a:ext cx="1956310" cy="1801012"/>
+          <a:off x="39568588" y="23733494"/>
+          <a:ext cx="1961073" cy="1821649"/>
           <a:chOff x="38741687" y="6727381"/>
           <a:chExt cx="1967608" cy="1170238"/>
         </a:xfrm>
@@ -19404,8 +19404,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6242050" y="14874054"/>
-          <a:ext cx="14726832" cy="4983613"/>
+          <a:off x="6342062" y="15069316"/>
+          <a:ext cx="15076082" cy="5069338"/>
           <a:chOff x="8298639" y="5083969"/>
           <a:chExt cx="15274520" cy="4989963"/>
         </a:xfrm>
@@ -20990,8 +20990,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36793278" y="36442650"/>
-          <a:ext cx="1761159" cy="1340303"/>
+          <a:off x="37463203" y="36982400"/>
+          <a:ext cx="1730996" cy="1356178"/>
           <a:chOff x="38741689" y="6561536"/>
           <a:chExt cx="1944187" cy="900545"/>
         </a:xfrm>
@@ -21520,8 +21520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37230050" y="15832139"/>
-          <a:ext cx="1798352" cy="1404936"/>
+          <a:off x="37893625" y="16049626"/>
+          <a:ext cx="1780889" cy="1420811"/>
           <a:chOff x="38741689" y="6561536"/>
           <a:chExt cx="1944187" cy="900545"/>
         </a:xfrm>
@@ -22651,8 +22651,8 @@
   </sheetPr>
   <dimension ref="B2:BH84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AU24" sqref="AU24:AU78"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="T46" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="BH75" sqref="BH75:BH76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -27868,8 +27868,8 @@
   </sheetPr>
   <dimension ref="B1:AJ81"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A49" zoomScale="55" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="J54" zoomScale="145" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="AA62" sqref="AA62:AG62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -32046,7 +32046,7 @@
   <dimension ref="B1:AG59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="75" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28:AG28"/>
+      <selection activeCell="AA59" sqref="AA59:AG59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
